--- a/biology/Botanique/Coriariaceae/Coriariaceae.xlsx
+++ b/biology/Botanique/Coriariaceae/Coriariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coriariaceae sont une famille de plantes dicotylédones composée d'un seul genre, Coriaria (famille monotypique), qui comprend lui-même 15 espèces .
 Ce sont des arbustes (parfois de petits arbres) des régions tempérées chaudes, subtropicales à tropicales, originaires du bassin méditerranéen, du Moyen-Orient, de la Nouvelle-Guinée, de Nouvelle-Zélande ou d'Amérique du Sud.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Coriaria, dérivé du latin corium, cuir, est un substantif féminin attesté chez Pline et Dioscoride, qui désignait dans la Rome antique, une plante utilisée par les tanneurs pour corroyer les peaux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Coriaria, dérivé du latin corium, cuir, est un substantif féminin attesté chez Pline et Dioscoride, qui désignait dans la Rome antique, une plante utilisée par les tanneurs pour corroyer les peaux.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Classification de Cronquist met cette famille dans l'ordre des Ranunculales.
-La classification phylogénétique APG III (2009)[2] l'attribue aux Cucurbitales.
+La classification phylogénétique APG III (2009) l'attribue aux Cucurbitales.
 </t>
         </is>
       </c>
@@ -576,15 +592,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Coriaria sont des arbustes ou des arbrisseaux suffrutescents, dressés ou grimpants, à feuilles persistantes. Les tiges cylindriques, devenant anguleuses, sont ramifiées (ressemblant à des feuilles composées), lenticellées. Les feuilles opposées, distiques (rarement verticillées), pétiolées à sessiles, sont simples, coriaces, pubérulentes à la face abaxiale, aux bords entiers, et à nervation primaire palmée. Les stipules minuscules sont caduques[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Coriaria sont des arbustes ou des arbrisseaux suffrutescents, dressés ou grimpants, à feuilles persistantes. Les tiges cylindriques, devenant anguleuses, sont ramifiées (ressemblant à des feuilles composées), lenticellées. Les feuilles opposées, distiques (rarement verticillées), pétiolées à sessiles, sont simples, coriaces, pubérulentes à la face abaxiale, aux bords entiers, et à nervation primaire palmée. Les stipules minuscules sont caduques. 
 Les inflorescences terminales ou issues de la croissance de la saison précédente, sont des grappes (racémeuses). 
 Les fleurs nombreuses, petites, munies de bractées, bisexuées, présentent une symétrie actinomorphe pentamère.
 Le calice se compose de 5 sépales imbriqués. La corolle, polypétale, est charnue et persistante sur le fruit.
 Les étamines, au nombre de 10, antépétales, sont verticillées, adnées au périanthe, avec des anthères basifixes (rarement dorsifixes), déhiscentes par des fentes longitudinales sur toute leur longueur.
 L'ovaire, supère, apocarpe ou conné à la base, se compose de 5 à 10 (voire 12) carpelles aux styles longs. 
-Le fruit est une pseudo-drupe ou akène, petit, de 2 à 3 mm de long environ. Les graines, 1 à 10, sont comprimées[3].
+Le fruit est une pseudo-drupe ou akène, petit, de 2 à 3 mm de long environ. Les graines, 1 à 10, sont comprimées.
 			Feuilles de Coriaria nepalensis.
 			Fruits de Coriaria myrtifolia.
 			Inflorescences de Coriaria arborea.
@@ -616,10 +634,12 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Coriaria contiennent des lactones sesquiterpéniques du type picrotoxine. Ce sont notamment la coriamyrtine, la hyénanchine, la tutine. Ces substances, toxiques pour l'homme et les animaux d'élevage, sont présentes dans toutes les parties de la plante à l'exception de la partie charnue des faux-fruits constituée par les pétales accrescents[4].
-Ce sont des antagonistes de l'acide γ-aminobutyrique. Leur structure moléculaire est proche de celle des sesquiterpènes convulsivants, comme l'anisatine, présents chez les badianes (Illicium ), et de la picrotoxine présente dans la coque du Levant (Anamirta cocculus)[5],[6].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Coriaria contiennent des lactones sesquiterpéniques du type picrotoxine. Ce sont notamment la coriamyrtine, la hyénanchine, la tutine. Ces substances, toxiques pour l'homme et les animaux d'élevage, sont présentes dans toutes les parties de la plante à l'exception de la partie charnue des faux-fruits constituée par les pétales accrescents.
+Ce sont des antagonistes de l'acide γ-aminobutyrique. Leur structure moléculaire est proche de celle des sesquiterpènes convulsivants, comme l'anisatine, présents chez les badianes (Illicium ), et de la picrotoxine présente dans la coque du Levant (Anamirta cocculus),.  
 </t>
         </is>
       </c>
@@ -648,12 +668,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Coriariaceae a une aire de répartition disjointe mais qui touche tous les continents. Neuf espèces sont originaires d'Australasie (principalement en Nouvelle-Zélande, aux îles Chatham et Kermadec, aux Fidji, aux Nouvelles-Hébrides, en Papouasie-Nouvelle-Guinée et aussi aux Samoa), cinq de l'Asie (chaîne de l'Himalaya, Yunnan, Taïwan, Philippines et Japon), une du bassin méditerranéen (France, Espagne, Maroc, Algérie) et une ou deux espèces du continent américain, de 45° de latitude Sud (Patagonie) à 23° de latitude Nord (Mexique), avec un écart de plusieurs centaines de kilomètres entre les populations du Chili les plus septentrionales et celles du Pérou les plus méridionales[7]. 
-En France
-La seule espèce présente est Coriaria myrtifolia, le redoul, herbe-aux-tanneurs, ou encore corroyère.
-La totalité de la plante est très toxique (mortelle), car elle contient un convulsivant, la coriamyrtine.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Coriariaceae a une aire de répartition disjointe mais qui touche tous les continents. Neuf espèces sont originaires d'Australasie (principalement en Nouvelle-Zélande, aux îles Chatham et Kermadec, aux Fidji, aux Nouvelles-Hébrides, en Papouasie-Nouvelle-Guinée et aussi aux Samoa), cinq de l'Asie (chaîne de l'Himalaya, Yunnan, Taïwan, Philippines et Japon), une du bassin méditerranéen (France, Espagne, Maroc, Algérie) et une ou deux espèces du continent américain, de 45° de latitude Sud (Patagonie) à 23° de latitude Nord (Mexique), avec un écart de plusieurs centaines de kilomètres entre les populations du Chili les plus septentrionales et celles du Pérou les plus méridionales. 
 </t>
         </is>
       </c>
@@ -679,13 +698,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Liste des genres</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010)[8], Angiosperm Phylogeny Website                        (26 mai 2010)[9], NCBI  (26 mai 2010)[10] et DELTA Angio           (26 mai 2010)[11] :
-genre Coriaria L. (1753)</t>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule espèce présente est Coriaria myrtifolia, le redoul, herbe-aux-tanneurs, ou encore corroyère.
+La totalité de la plante est très toxique (mortelle), car elle contient un convulsivant, la coriamyrtine.
+</t>
         </is>
       </c>
     </row>
@@ -710,12 +736,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010), Angiosperm Phylogeny Website                        (26 mai 2010), NCBI  (26 mai 2010) et DELTA Angio           (26 mai 2010) :
+genre Coriaria L. (1753)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coriariaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coriariaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010)[8] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010) :
 genre Coriaria L. (1753)
 Coriaria angustissima Hook.f. (1864)
 Coriaria arborea Linds. (1868)
@@ -732,7 +793,7 @@
 Coriaria × sarlurida Cockayne &amp; Allan (1927)
 Coriaria × sarmangusta Allan (1927)
 Coriaria terminalis Hemsl. (1892)
-Selon NCBI  (26 mai 2010)[10] :
+Selon NCBI  (26 mai 2010) :
 genre Coriaria
 Coriaria angustissima
 Coriaria arborea
